--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-20_remove/rem4/67/word_level_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-20_remove/rem4/67/word_level_predictions_67.xlsx
@@ -1126,104 +1126,104 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B14" s="2" t="inlineStr">
+      <c r="A14" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>Camera error AI Spot-Check failed Restart camera .</t>
         </is>
       </c>
-      <c r="C14" s="2" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>AI</t>
         </is>
       </c>
-      <c r="D14" s="2" t="n">
+      <c r="D14" t="n">
         <v>2</v>
       </c>
-      <c r="E14" s="2" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G14" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I14" t="b">
+        <v>1</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K14" t="b">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>1</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Camera error AI Spot-Check failed Restart camera .</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Spot-Check</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>3</v>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G14" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B15" s="2" t="inlineStr">
-        <is>
-          <t>Camera error AI Spot-Check failed Restart camera .</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>Spot-Check</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G15" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
+      <c r="G15" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I15" t="b">
+        <v>1</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K15" t="b">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr">
         <is>
           <t>Wrong_Tag_I_as_E</t>
         </is>
@@ -1253,7 +1253,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G16" s="2" t="b">
@@ -1277,7 +1277,7 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -1438,364 +1438,364 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="n">
+      <c r="A20" t="n">
         <v>2</v>
       </c>
-      <c r="B20" s="2" t="inlineStr">
+      <c r="B20" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C20" s="2" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D20" s="2" t="n">
+      <c r="D20" t="n">
         <v>0</v>
       </c>
-      <c r="E20" s="2" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F20" s="2" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G20" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I20" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L20" s="2" t="inlineStr">
+      <c r="G20" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I20" t="b">
+        <v>1</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K20" t="b">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="n">
+      <c r="A21" t="n">
         <v>2</v>
       </c>
-      <c r="B21" s="2" t="inlineStr">
+      <c r="B21" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C21" s="2" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D21" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
+      <c r="D21" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F21" s="2" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G21" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I21" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K21" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L21" s="2" t="inlineStr">
+      <c r="G21" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I21" t="b">
+        <v>1</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K21" t="b">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="2" t="n">
+      <c r="A22" t="n">
         <v>2</v>
       </c>
-      <c r="B22" s="2" t="inlineStr">
+      <c r="B22" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C22" s="2" t="inlineStr">
+      <c r="C22" t="inlineStr">
         <is>
           <t>returning</t>
         </is>
       </c>
-      <c r="D22" s="2" t="n">
+      <c r="D22" t="n">
         <v>2</v>
       </c>
-      <c r="E22" s="2" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F22" s="2" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G22" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I22" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K22" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L22" s="2" t="inlineStr">
+      <c r="G22" t="b">
+        <v>1</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I22" t="b">
+        <v>1</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K22" t="b">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="n">
+      <c r="A23" t="n">
         <v>2</v>
       </c>
-      <c r="B23" s="2" t="inlineStr">
+      <c r="B23" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C23" s="2" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D23" s="2" t="n">
+      <c r="D23" t="n">
         <v>3</v>
       </c>
-      <c r="E23" s="2" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F23" s="2" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G23" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I23" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J23" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K23" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L23" s="2" t="inlineStr">
+      <c r="G23" t="b">
+        <v>1</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K23" t="b">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="n">
+      <c r="A24" t="n">
         <v>2</v>
       </c>
-      <c r="B24" s="2" t="inlineStr">
+      <c r="B24" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C24" s="2" t="inlineStr">
+      <c r="C24" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D24" s="2" t="n">
+      <c r="D24" t="n">
         <v>4</v>
       </c>
-      <c r="E24" s="2" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F24" s="2" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G24" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L24" s="2" t="inlineStr">
+      <c r="G24" t="b">
+        <v>1</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I24" t="b">
+        <v>1</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K24" t="b">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="2" t="n">
+      <c r="A25" t="n">
         <v>2</v>
       </c>
-      <c r="B25" s="2" t="inlineStr">
+      <c r="B25" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C25" s="2" t="inlineStr">
+      <c r="C25" t="inlineStr">
         <is>
           <t>Home</t>
         </is>
       </c>
-      <c r="D25" s="2" t="n">
+      <c r="D25" t="n">
         <v>5</v>
       </c>
-      <c r="E25" s="2" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F25" s="2" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G25" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L25" s="2" t="inlineStr">
+      <c r="G25" t="b">
+        <v>1</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I25" t="b">
+        <v>1</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K25" t="b">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="2" t="n">
+      <c r="A26" t="n">
         <v>2</v>
       </c>
-      <c r="B26" s="2" t="inlineStr">
+      <c r="B26" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C26" s="2" t="inlineStr">
+      <c r="C26" t="inlineStr">
         <is>
           <t>Point</t>
         </is>
       </c>
-      <c r="D26" s="2" t="n">
+      <c r="D26" t="n">
         <v>6</v>
       </c>
-      <c r="E26" s="2" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F26" s="2" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G26" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L26" s="2" t="inlineStr">
+      <c r="G26" t="b">
+        <v>1</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I26" t="b">
+        <v>1</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K26" t="b">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
@@ -1837,11 +1837,11 @@
         </is>
       </c>
       <c r="I27" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K27" s="2" t="b">
@@ -1877,7 +1877,7 @@
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G28" s="2" t="b">
@@ -1889,11 +1889,11 @@
         </is>
       </c>
       <c r="I28" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K28" s="2" t="b">
@@ -1901,7 +1901,7 @@
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -1929,7 +1929,7 @@
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G29" s="2" t="b">
@@ -1941,11 +1941,11 @@
         </is>
       </c>
       <c r="I29" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K29" s="2" t="b">
@@ -1953,7 +1953,7 @@
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -1981,7 +1981,7 @@
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G30" s="2" t="b">
@@ -1993,11 +1993,11 @@
         </is>
       </c>
       <c r="I30" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K30" s="2" t="b">
@@ -2005,7 +2005,7 @@
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -2033,7 +2033,7 @@
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G31" s="2" t="b">
@@ -2045,11 +2045,11 @@
         </is>
       </c>
       <c r="I31" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K31" s="2" t="b">
@@ -2057,7 +2057,7 @@
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -3645,7 +3645,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G62" t="b">
@@ -3669,7 +3669,7 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>Wrong_Tag_E_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -3709,11 +3709,11 @@
         </is>
       </c>
       <c r="I63" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J63" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K63" s="2" t="b">
@@ -7597,7 +7597,7 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G138" t="b">
@@ -7621,475 +7621,475 @@
       </c>
       <c r="L138" t="inlineStr">
         <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B139" s="2" t="inlineStr">
+        <is>
+          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
+        </is>
+      </c>
+      <c r="C139" s="2" t="inlineStr">
+        <is>
+          <t>Contact</t>
+        </is>
+      </c>
+      <c r="D139" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E139" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="F139" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G139" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H139" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I139" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J139" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K139" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L139" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B140" s="2" t="inlineStr">
+        <is>
+          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
+        </is>
+      </c>
+      <c r="C140" s="2" t="inlineStr">
+        <is>
+          <t>DJI</t>
+        </is>
+      </c>
+      <c r="D140" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="E140" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F140" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G140" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H140" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I140" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J140" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K140" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L140" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B141" s="2" t="inlineStr">
+        <is>
+          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
+        </is>
+      </c>
+      <c r="C141" s="2" t="inlineStr">
+        <is>
+          <t>Support</t>
+        </is>
+      </c>
+      <c r="D141" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="E141" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F141" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G141" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H141" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I141" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J141" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K141" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L141" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B142" s="2" t="inlineStr">
+        <is>
+          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
+        </is>
+      </c>
+      <c r="C142" s="2" t="inlineStr">
+        <is>
+          <t>if</t>
+        </is>
+      </c>
+      <c r="D142" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="E142" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F142" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G142" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H142" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I142" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J142" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K142" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L142" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B143" s="2" t="inlineStr">
+        <is>
+          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
+        </is>
+      </c>
+      <c r="C143" s="2" t="inlineStr">
+        <is>
+          <t>this</t>
+        </is>
+      </c>
+      <c r="D143" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="E143" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F143" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G143" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H143" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I143" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J143" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K143" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L143" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B144" s="2" t="inlineStr">
+        <is>
+          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
+        </is>
+      </c>
+      <c r="C144" s="2" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="D144" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="E144" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F144" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G144" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H144" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I144" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J144" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K144" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L144" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B145" s="2" t="inlineStr">
+        <is>
+          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
+        </is>
+      </c>
+      <c r="C145" s="2" t="inlineStr">
+        <is>
+          <t>persists</t>
+        </is>
+      </c>
+      <c r="D145" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="E145" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F145" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G145" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H145" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I145" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J145" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K145" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L145" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B146" s="2" t="inlineStr">
+        <is>
+          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
+        </is>
+      </c>
+      <c r="C146" s="2" t="inlineStr">
+        <is>
+          <t>after</t>
+        </is>
+      </c>
+      <c r="D146" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="E146" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F146" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G146" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H146" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I146" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J146" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K146" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L146" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B147" s="2" t="inlineStr">
+        <is>
+          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
+        </is>
+      </c>
+      <c r="C147" s="2" t="inlineStr">
+        <is>
+          <t>restarting</t>
+        </is>
+      </c>
+      <c r="D147" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="E147" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="F147" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G147" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H147" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I147" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J147" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K147" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L147" s="2" t="inlineStr">
+        <is>
           <t>Wrong_Tag_E_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="n">
-        <v>9</v>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>Contact</t>
-        </is>
-      </c>
-      <c r="D139" t="n">
-        <v>10</v>
-      </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="F139" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G139" t="b">
-        <v>1</v>
-      </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I139" t="b">
-        <v>1</v>
-      </c>
-      <c r="J139" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K139" t="b">
-        <v>1</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="n">
-        <v>9</v>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>DJI</t>
-        </is>
-      </c>
-      <c r="D140" t="n">
-        <v>11</v>
-      </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G140" t="b">
-        <v>1</v>
-      </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I140" t="b">
-        <v>1</v>
-      </c>
-      <c r="J140" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K140" t="b">
-        <v>1</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="n">
-        <v>9</v>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>Support</t>
-        </is>
-      </c>
-      <c r="D141" t="n">
-        <v>12</v>
-      </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G141" t="b">
-        <v>1</v>
-      </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I141" t="b">
-        <v>1</v>
-      </c>
-      <c r="J141" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K141" t="b">
-        <v>1</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="n">
-        <v>9</v>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>if</t>
-        </is>
-      </c>
-      <c r="D142" t="n">
-        <v>13</v>
-      </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G142" t="b">
-        <v>1</v>
-      </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I142" t="b">
-        <v>1</v>
-      </c>
-      <c r="J142" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K142" t="b">
-        <v>1</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="n">
-        <v>9</v>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>this</t>
-        </is>
-      </c>
-      <c r="D143" t="n">
-        <v>14</v>
-      </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G143" t="b">
-        <v>1</v>
-      </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I143" t="b">
-        <v>1</v>
-      </c>
-      <c r="J143" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K143" t="b">
-        <v>1</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="n">
-        <v>9</v>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="D144" t="n">
-        <v>15</v>
-      </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F144" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G144" t="b">
-        <v>1</v>
-      </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I144" t="b">
-        <v>1</v>
-      </c>
-      <c r="J144" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K144" t="b">
-        <v>1</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="n">
-        <v>9</v>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>persists</t>
-        </is>
-      </c>
-      <c r="D145" t="n">
-        <v>16</v>
-      </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F145" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G145" t="b">
-        <v>1</v>
-      </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I145" t="b">
-        <v>1</v>
-      </c>
-      <c r="J145" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K145" t="b">
-        <v>1</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="n">
-        <v>9</v>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>after</t>
-        </is>
-      </c>
-      <c r="D146" t="n">
-        <v>17</v>
-      </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G146" t="b">
-        <v>1</v>
-      </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I146" t="b">
-        <v>1</v>
-      </c>
-      <c r="J146" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K146" t="b">
-        <v>1</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="n">
-        <v>9</v>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>restarting</t>
-        </is>
-      </c>
-      <c r="D147" t="n">
-        <v>18</v>
-      </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="F147" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G147" t="b">
-        <v>1</v>
-      </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I147" t="b">
-        <v>1</v>
-      </c>
-      <c r="J147" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K147" t="b">
-        <v>1</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -8146,364 +8146,364 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="2" t="n">
+      <c r="A149" t="n">
         <v>10</v>
       </c>
-      <c r="B149" s="2" t="inlineStr">
+      <c r="B149" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C149" s="2" t="inlineStr">
+      <c r="C149" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D149" s="2" t="n">
+      <c r="D149" t="n">
         <v>0</v>
       </c>
-      <c r="E149" s="2" t="inlineStr">
+      <c r="E149" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F149" s="2" t="inlineStr">
+      <c r="F149" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G149" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H149" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I149" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J149" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K149" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L149" s="2" t="inlineStr">
+      <c r="G149" t="b">
+        <v>1</v>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I149" t="b">
+        <v>1</v>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K149" t="b">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="2" t="n">
+      <c r="A150" t="n">
         <v>10</v>
       </c>
-      <c r="B150" s="2" t="inlineStr">
+      <c r="B150" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C150" s="2" t="inlineStr">
+      <c r="C150" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D150" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E150" s="2" t="inlineStr">
+      <c r="D150" t="n">
+        <v>1</v>
+      </c>
+      <c r="E150" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F150" s="2" t="inlineStr">
+      <c r="F150" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G150" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H150" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I150" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J150" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K150" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L150" s="2" t="inlineStr">
+      <c r="G150" t="b">
+        <v>1</v>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I150" t="b">
+        <v>1</v>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K150" t="b">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="2" t="n">
+      <c r="A151" t="n">
         <v>10</v>
       </c>
-      <c r="B151" s="2" t="inlineStr">
+      <c r="B151" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C151" s="2" t="inlineStr">
+      <c r="C151" t="inlineStr">
         <is>
           <t>returning</t>
         </is>
       </c>
-      <c r="D151" s="2" t="n">
+      <c r="D151" t="n">
         <v>2</v>
       </c>
-      <c r="E151" s="2" t="inlineStr">
+      <c r="E151" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F151" s="2" t="inlineStr">
+      <c r="F151" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G151" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H151" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I151" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J151" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K151" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L151" s="2" t="inlineStr">
+      <c r="G151" t="b">
+        <v>1</v>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I151" t="b">
+        <v>1</v>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K151" t="b">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="2" t="n">
+      <c r="A152" t="n">
         <v>10</v>
       </c>
-      <c r="B152" s="2" t="inlineStr">
+      <c r="B152" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C152" s="2" t="inlineStr">
+      <c r="C152" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D152" s="2" t="n">
+      <c r="D152" t="n">
         <v>3</v>
       </c>
-      <c r="E152" s="2" t="inlineStr">
+      <c r="E152" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F152" s="2" t="inlineStr">
+      <c r="F152" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G152" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H152" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I152" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J152" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K152" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L152" s="2" t="inlineStr">
+      <c r="G152" t="b">
+        <v>1</v>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I152" t="b">
+        <v>1</v>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K152" t="b">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="2" t="n">
+      <c r="A153" t="n">
         <v>10</v>
       </c>
-      <c r="B153" s="2" t="inlineStr">
+      <c r="B153" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C153" s="2" t="inlineStr">
+      <c r="C153" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D153" s="2" t="n">
+      <c r="D153" t="n">
         <v>4</v>
       </c>
-      <c r="E153" s="2" t="inlineStr">
+      <c r="E153" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F153" s="2" t="inlineStr">
+      <c r="F153" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G153" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H153" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I153" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J153" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K153" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L153" s="2" t="inlineStr">
+      <c r="G153" t="b">
+        <v>1</v>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I153" t="b">
+        <v>1</v>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K153" t="b">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="2" t="n">
+      <c r="A154" t="n">
         <v>10</v>
       </c>
-      <c r="B154" s="2" t="inlineStr">
+      <c r="B154" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C154" s="2" t="inlineStr">
+      <c r="C154" t="inlineStr">
         <is>
           <t>Home</t>
         </is>
       </c>
-      <c r="D154" s="2" t="n">
+      <c r="D154" t="n">
         <v>5</v>
       </c>
-      <c r="E154" s="2" t="inlineStr">
+      <c r="E154" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F154" s="2" t="inlineStr">
+      <c r="F154" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G154" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H154" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I154" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J154" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K154" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L154" s="2" t="inlineStr">
+      <c r="G154" t="b">
+        <v>1</v>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I154" t="b">
+        <v>1</v>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K154" t="b">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="2" t="n">
+      <c r="A155" t="n">
         <v>10</v>
       </c>
-      <c r="B155" s="2" t="inlineStr">
+      <c r="B155" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C155" s="2" t="inlineStr">
+      <c r="C155" t="inlineStr">
         <is>
           <t>Point</t>
         </is>
       </c>
-      <c r="D155" s="2" t="n">
+      <c r="D155" t="n">
         <v>6</v>
       </c>
-      <c r="E155" s="2" t="inlineStr">
+      <c r="E155" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F155" s="2" t="inlineStr">
+      <c r="F155" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G155" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H155" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I155" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J155" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K155" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L155" s="2" t="inlineStr">
+      <c r="G155" t="b">
+        <v>1</v>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I155" t="b">
+        <v>1</v>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K155" t="b">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
@@ -8533,7 +8533,7 @@
       </c>
       <c r="F156" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G156" s="2" t="b">
@@ -8545,11 +8545,11 @@
         </is>
       </c>
       <c r="I156" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J156" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K156" s="2" t="b">
@@ -8557,7 +8557,7 @@
       </c>
       <c r="L156" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -8585,7 +8585,7 @@
       </c>
       <c r="F157" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G157" s="2" t="b">
@@ -8597,11 +8597,11 @@
         </is>
       </c>
       <c r="I157" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J157" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K157" s="2" t="b">
@@ -8609,7 +8609,7 @@
       </c>
       <c r="L157" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -8637,7 +8637,7 @@
       </c>
       <c r="F158" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G158" s="2" t="b">
@@ -8649,11 +8649,11 @@
         </is>
       </c>
       <c r="I158" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J158" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K158" s="2" t="b">
@@ -8661,7 +8661,7 @@
       </c>
       <c r="L158" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -8689,7 +8689,7 @@
       </c>
       <c r="F159" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G159" s="2" t="b">
@@ -8701,11 +8701,11 @@
         </is>
       </c>
       <c r="I159" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J159" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K159" s="2" t="b">
@@ -8713,7 +8713,7 @@
       </c>
       <c r="L159" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -9706,260 +9706,260 @@
       </c>
     </row>
     <row r="179">
-      <c r="A179" s="2" t="n">
+      <c r="A179" t="n">
         <v>11</v>
       </c>
-      <c r="B179" s="2" t="inlineStr">
+      <c r="B179" t="inlineStr">
         <is>
           <t>Weak GPS signal Positioning accuracy may be compromised Please fly with caution .</t>
         </is>
       </c>
-      <c r="C179" s="2" t="inlineStr">
+      <c r="C179" t="inlineStr">
         <is>
           <t>Positioning</t>
         </is>
       </c>
-      <c r="D179" s="2" t="n">
+      <c r="D179" t="n">
         <v>3</v>
       </c>
-      <c r="E179" s="2" t="inlineStr">
+      <c r="E179" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F179" s="2" t="inlineStr">
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G179" t="b">
+        <v>1</v>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I179" t="b">
+        <v>1</v>
+      </c>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K179" t="b">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>11</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Weak GPS signal Positioning accuracy may be compromised Please fly with caution .</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="D180" t="n">
+        <v>4</v>
+      </c>
+      <c r="E180" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G179" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H179" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I179" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J179" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K179" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L179" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="2" t="n">
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G180" t="b">
+        <v>1</v>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I180" t="b">
+        <v>1</v>
+      </c>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K180" t="b">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
         <v>11</v>
       </c>
-      <c r="B180" s="2" t="inlineStr">
+      <c r="B181" t="inlineStr">
         <is>
           <t>Weak GPS signal Positioning accuracy may be compromised Please fly with caution .</t>
         </is>
       </c>
-      <c r="C180" s="2" t="inlineStr">
-        <is>
-          <t>accuracy</t>
-        </is>
-      </c>
-      <c r="D180" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="E180" s="2" t="inlineStr">
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>may</t>
+        </is>
+      </c>
+      <c r="D181" t="n">
+        <v>5</v>
+      </c>
+      <c r="E181" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F180" s="2" t="inlineStr">
+      <c r="F181" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G180" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H180" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I180" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J180" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K180" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L180" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="2" t="n">
+      <c r="G181" t="b">
+        <v>1</v>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I181" t="b">
+        <v>1</v>
+      </c>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K181" t="b">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
         <v>11</v>
       </c>
-      <c r="B181" s="2" t="inlineStr">
+      <c r="B182" t="inlineStr">
         <is>
           <t>Weak GPS signal Positioning accuracy may be compromised Please fly with caution .</t>
         </is>
       </c>
-      <c r="C181" s="2" t="inlineStr">
-        <is>
-          <t>may</t>
-        </is>
-      </c>
-      <c r="D181" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="E181" s="2" t="inlineStr">
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>be</t>
+        </is>
+      </c>
+      <c r="D182" t="n">
+        <v>6</v>
+      </c>
+      <c r="E182" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F181" s="2" t="inlineStr">
+      <c r="F182" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G181" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H181" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I181" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J181" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K181" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L181" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="2" t="n">
+      <c r="G182" t="b">
+        <v>1</v>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I182" t="b">
+        <v>1</v>
+      </c>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K182" t="b">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
         <v>11</v>
       </c>
-      <c r="B182" s="2" t="inlineStr">
+      <c r="B183" t="inlineStr">
         <is>
           <t>Weak GPS signal Positioning accuracy may be compromised Please fly with caution .</t>
         </is>
       </c>
-      <c r="C182" s="2" t="inlineStr">
-        <is>
-          <t>be</t>
-        </is>
-      </c>
-      <c r="D182" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="E182" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F182" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G182" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H182" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I182" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J182" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K182" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L182" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B183" s="2" t="inlineStr">
-        <is>
-          <t>Weak GPS signal Positioning accuracy may be compromised Please fly with caution .</t>
-        </is>
-      </c>
-      <c r="C183" s="2" t="inlineStr">
+      <c r="C183" t="inlineStr">
         <is>
           <t>compromised</t>
         </is>
       </c>
-      <c r="D183" s="2" t="n">
+      <c r="D183" t="n">
         <v>7</v>
       </c>
-      <c r="E183" s="2" t="inlineStr">
+      <c r="E183" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F183" s="2" t="inlineStr">
+      <c r="F183" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G183" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H183" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I183" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J183" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K183" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L183" s="2" t="inlineStr">
+      <c r="G183" t="b">
+        <v>1</v>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I183" t="b">
+        <v>1</v>
+      </c>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K183" t="b">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-20_remove/rem4/67/word_level_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-20_remove/rem4/67/word_level_predictions_67.xlsx
@@ -1126,104 +1126,104 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="n">
-        <v>1</v>
-      </c>
-      <c r="B14" t="inlineStr">
+      <c r="A14" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
         <is>
           <t>Camera error AI Spot-Check failed Restart camera .</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C14" s="2" t="inlineStr">
         <is>
           <t>AI</t>
         </is>
       </c>
-      <c r="D14" t="n">
+      <c r="D14" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="E14" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G14" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I14" t="b">
-        <v>1</v>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K14" t="b">
-        <v>1</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
-        <v>1</v>
-      </c>
-      <c r="B15" t="inlineStr">
+      <c r="A15" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B15" s="2" t="inlineStr">
         <is>
           <t>Camera error AI Spot-Check failed Restart camera .</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C15" s="2" t="inlineStr">
         <is>
           <t>Spot-Check</t>
         </is>
       </c>
-      <c r="D15" t="n">
+      <c r="D15" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="E15" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F15" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G15" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I15" t="b">
-        <v>1</v>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K15" t="b">
-        <v>1</v>
-      </c>
-      <c r="L15" t="inlineStr">
+      <c r="G15" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_I_as_E</t>
         </is>
@@ -1253,7 +1253,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G16" s="2" t="b">
@@ -1277,7 +1277,7 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -1438,364 +1438,364 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="n">
+      <c r="A20" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" s="2" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="C20" s="2" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D20" t="n">
+      <c r="D20" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="E20" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="F20" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G20" t="b">
-        <v>1</v>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I20" t="b">
-        <v>1</v>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K20" t="b">
-        <v>1</v>
-      </c>
-      <c r="L20" t="inlineStr">
+      <c r="G20" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="n">
+      <c r="A21" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" s="2" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C21" s="2" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D21" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" t="inlineStr">
+      <c r="D21" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F21" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G21" t="b">
-        <v>1</v>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I21" t="b">
-        <v>1</v>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K21" t="b">
-        <v>1</v>
-      </c>
-      <c r="L21" t="inlineStr">
+      <c r="G21" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="n">
+      <c r="A22" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" s="2" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="C22" s="2" t="inlineStr">
         <is>
           <t>returning</t>
         </is>
       </c>
-      <c r="D22" t="n">
+      <c r="D22" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="E22" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="F22" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G22" t="b">
-        <v>1</v>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I22" t="b">
-        <v>1</v>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K22" t="b">
-        <v>1</v>
-      </c>
-      <c r="L22" t="inlineStr">
+      <c r="G22" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="n">
+      <c r="A23" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" s="2" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="C23" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D23" t="n">
+      <c r="D23" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="E23" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="F23" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G23" t="b">
-        <v>1</v>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I23" t="b">
-        <v>1</v>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K23" t="b">
-        <v>1</v>
-      </c>
-      <c r="L23" t="inlineStr">
+      <c r="G23" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="n">
+      <c r="A24" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" s="2" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="C24" s="2" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D24" t="n">
+      <c r="D24" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="E24" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="F24" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G24" t="b">
-        <v>1</v>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I24" t="b">
-        <v>1</v>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K24" t="b">
-        <v>1</v>
-      </c>
-      <c r="L24" t="inlineStr">
+      <c r="G24" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="n">
+      <c r="A25" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" s="2" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="C25" s="2" t="inlineStr">
         <is>
           <t>Home</t>
         </is>
       </c>
-      <c r="D25" t="n">
+      <c r="D25" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="E25" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="F25" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G25" t="b">
-        <v>1</v>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I25" t="b">
-        <v>1</v>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K25" t="b">
-        <v>1</v>
-      </c>
-      <c r="L25" t="inlineStr">
+      <c r="G25" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="n">
+      <c r="A26" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" s="2" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="C26" s="2" t="inlineStr">
         <is>
           <t>Point</t>
         </is>
       </c>
-      <c r="D26" t="n">
+      <c r="D26" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="E26" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="F26" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G26" t="b">
-        <v>1</v>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I26" t="b">
-        <v>1</v>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K26" t="b">
-        <v>1</v>
-      </c>
-      <c r="L26" t="inlineStr">
+      <c r="G26" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
@@ -1837,11 +1837,11 @@
         </is>
       </c>
       <c r="I27" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K27" s="2" t="b">
@@ -1877,7 +1877,7 @@
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G28" s="2" t="b">
@@ -1889,11 +1889,11 @@
         </is>
       </c>
       <c r="I28" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K28" s="2" t="b">
@@ -1901,7 +1901,7 @@
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -1929,7 +1929,7 @@
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G29" s="2" t="b">
@@ -1941,11 +1941,11 @@
         </is>
       </c>
       <c r="I29" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K29" s="2" t="b">
@@ -1953,7 +1953,7 @@
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -1981,7 +1981,7 @@
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G30" s="2" t="b">
@@ -1993,11 +1993,11 @@
         </is>
       </c>
       <c r="I30" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K30" s="2" t="b">
@@ -2005,7 +2005,7 @@
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -2033,7 +2033,7 @@
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G31" s="2" t="b">
@@ -2045,11 +2045,11 @@
         </is>
       </c>
       <c r="I31" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K31" s="2" t="b">
@@ -2057,7 +2057,7 @@
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -3645,7 +3645,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G62" t="b">
@@ -3669,7 +3669,7 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -3709,11 +3709,11 @@
         </is>
       </c>
       <c r="I63" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J63" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K63" s="2" t="b">
@@ -7597,499 +7597,499 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G138" t="b">
+        <v>1</v>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I138" t="b">
+        <v>1</v>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K138" t="b">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>9</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Contact</t>
+        </is>
+      </c>
+      <c r="D139" t="n">
+        <v>10</v>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G139" t="b">
+        <v>1</v>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I139" t="b">
+        <v>1</v>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K139" t="b">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>9</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>DJI</t>
+        </is>
+      </c>
+      <c r="D140" t="n">
+        <v>11</v>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G140" t="b">
+        <v>1</v>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I140" t="b">
+        <v>1</v>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K140" t="b">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>9</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Support</t>
+        </is>
+      </c>
+      <c r="D141" t="n">
+        <v>12</v>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G141" t="b">
+        <v>1</v>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I141" t="b">
+        <v>1</v>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K141" t="b">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>9</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>if</t>
+        </is>
+      </c>
+      <c r="D142" t="n">
+        <v>13</v>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G142" t="b">
+        <v>1</v>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I142" t="b">
+        <v>1</v>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K142" t="b">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>9</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>this</t>
+        </is>
+      </c>
+      <c r="D143" t="n">
+        <v>14</v>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G143" t="b">
+        <v>1</v>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I143" t="b">
+        <v>1</v>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K143" t="b">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>9</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="D144" t="n">
+        <v>15</v>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G144" t="b">
+        <v>1</v>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I144" t="b">
+        <v>1</v>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K144" t="b">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>9</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>persists</t>
+        </is>
+      </c>
+      <c r="D145" t="n">
+        <v>16</v>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G145" t="b">
+        <v>1</v>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I145" t="b">
+        <v>1</v>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K145" t="b">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>9</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>after</t>
+        </is>
+      </c>
+      <c r="D146" t="n">
+        <v>17</v>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G146" t="b">
+        <v>1</v>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I146" t="b">
+        <v>1</v>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K146" t="b">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>9</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>restarting</t>
+        </is>
+      </c>
+      <c r="D147" t="n">
+        <v>18</v>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G138" t="b">
-        <v>1</v>
-      </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I138" t="b">
-        <v>1</v>
-      </c>
-      <c r="J138" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K138" t="b">
-        <v>1</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B139" s="2" t="inlineStr">
-        <is>
-          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
-        </is>
-      </c>
-      <c r="C139" s="2" t="inlineStr">
-        <is>
-          <t>Contact</t>
-        </is>
-      </c>
-      <c r="D139" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="E139" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="F139" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G139" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H139" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I139" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J139" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K139" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L139" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B140" s="2" t="inlineStr">
-        <is>
-          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
-        </is>
-      </c>
-      <c r="C140" s="2" t="inlineStr">
-        <is>
-          <t>DJI</t>
-        </is>
-      </c>
-      <c r="D140" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="E140" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F140" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G140" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H140" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I140" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J140" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K140" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L140" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B141" s="2" t="inlineStr">
-        <is>
-          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
-        </is>
-      </c>
-      <c r="C141" s="2" t="inlineStr">
-        <is>
-          <t>Support</t>
-        </is>
-      </c>
-      <c r="D141" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="E141" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F141" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G141" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H141" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I141" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J141" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K141" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L141" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B142" s="2" t="inlineStr">
-        <is>
-          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
-        </is>
-      </c>
-      <c r="C142" s="2" t="inlineStr">
-        <is>
-          <t>if</t>
-        </is>
-      </c>
-      <c r="D142" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="E142" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F142" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G142" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H142" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I142" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J142" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K142" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L142" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B143" s="2" t="inlineStr">
-        <is>
-          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
-        </is>
-      </c>
-      <c r="C143" s="2" t="inlineStr">
-        <is>
-          <t>this</t>
-        </is>
-      </c>
-      <c r="D143" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="E143" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F143" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G143" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H143" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I143" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J143" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K143" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L143" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B144" s="2" t="inlineStr">
-        <is>
-          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
-        </is>
-      </c>
-      <c r="C144" s="2" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="D144" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="E144" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F144" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G144" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H144" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I144" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J144" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K144" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L144" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B145" s="2" t="inlineStr">
-        <is>
-          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
-        </is>
-      </c>
-      <c r="C145" s="2" t="inlineStr">
-        <is>
-          <t>persists</t>
-        </is>
-      </c>
-      <c r="D145" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="E145" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F145" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G145" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H145" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I145" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J145" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K145" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L145" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B146" s="2" t="inlineStr">
-        <is>
-          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
-        </is>
-      </c>
-      <c r="C146" s="2" t="inlineStr">
-        <is>
-          <t>after</t>
-        </is>
-      </c>
-      <c r="D146" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="E146" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F146" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G146" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H146" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I146" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J146" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K146" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L146" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B147" s="2" t="inlineStr">
-        <is>
-          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
-        </is>
-      </c>
-      <c r="C147" s="2" t="inlineStr">
-        <is>
-          <t>restarting</t>
-        </is>
-      </c>
-      <c r="D147" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="E147" s="2" t="inlineStr">
+      <c r="F147" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F147" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G147" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H147" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I147" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J147" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K147" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L147" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="G147" t="b">
+        <v>1</v>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I147" t="b">
+        <v>1</v>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K147" t="b">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -8146,364 +8146,364 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" t="n">
+      <c r="A149" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="B149" t="inlineStr">
+      <c r="B149" s="2" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C149" t="inlineStr">
+      <c r="C149" s="2" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D149" t="n">
+      <c r="D149" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E149" t="inlineStr">
+      <c r="E149" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F149" t="inlineStr">
+      <c r="F149" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G149" t="b">
-        <v>1</v>
-      </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I149" t="b">
-        <v>1</v>
-      </c>
-      <c r="J149" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K149" t="b">
-        <v>1</v>
-      </c>
-      <c r="L149" t="inlineStr">
+      <c r="G149" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H149" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I149" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J149" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K149" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L149" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="150">
-      <c r="A150" t="n">
+      <c r="A150" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="B150" t="inlineStr">
+      <c r="B150" s="2" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C150" t="inlineStr">
+      <c r="C150" s="2" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D150" t="n">
-        <v>1</v>
-      </c>
-      <c r="E150" t="inlineStr">
+      <c r="D150" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E150" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F150" t="inlineStr">
+      <c r="F150" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G150" t="b">
-        <v>1</v>
-      </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I150" t="b">
-        <v>1</v>
-      </c>
-      <c r="J150" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K150" t="b">
-        <v>1</v>
-      </c>
-      <c r="L150" t="inlineStr">
+      <c r="G150" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H150" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I150" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J150" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K150" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L150" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="151">
-      <c r="A151" t="n">
+      <c r="A151" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="B151" t="inlineStr">
+      <c r="B151" s="2" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C151" t="inlineStr">
+      <c r="C151" s="2" t="inlineStr">
         <is>
           <t>returning</t>
         </is>
       </c>
-      <c r="D151" t="n">
+      <c r="D151" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E151" t="inlineStr">
+      <c r="E151" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F151" t="inlineStr">
+      <c r="F151" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G151" t="b">
-        <v>1</v>
-      </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I151" t="b">
-        <v>1</v>
-      </c>
-      <c r="J151" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K151" t="b">
-        <v>1</v>
-      </c>
-      <c r="L151" t="inlineStr">
+      <c r="G151" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H151" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I151" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J151" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K151" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L151" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="n">
+      <c r="A152" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="B152" t="inlineStr">
+      <c r="B152" s="2" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C152" t="inlineStr">
+      <c r="C152" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D152" t="n">
+      <c r="D152" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E152" t="inlineStr">
+      <c r="E152" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F152" t="inlineStr">
+      <c r="F152" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G152" t="b">
-        <v>1</v>
-      </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I152" t="b">
-        <v>1</v>
-      </c>
-      <c r="J152" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K152" t="b">
-        <v>1</v>
-      </c>
-      <c r="L152" t="inlineStr">
+      <c r="G152" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H152" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I152" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J152" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K152" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L152" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="153">
-      <c r="A153" t="n">
+      <c r="A153" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="B153" t="inlineStr">
+      <c r="B153" s="2" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C153" t="inlineStr">
+      <c r="C153" s="2" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D153" t="n">
+      <c r="D153" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E153" t="inlineStr">
+      <c r="E153" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F153" t="inlineStr">
+      <c r="F153" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G153" t="b">
-        <v>1</v>
-      </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I153" t="b">
-        <v>1</v>
-      </c>
-      <c r="J153" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K153" t="b">
-        <v>1</v>
-      </c>
-      <c r="L153" t="inlineStr">
+      <c r="G153" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H153" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I153" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J153" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K153" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L153" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="154">
-      <c r="A154" t="n">
+      <c r="A154" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="B154" t="inlineStr">
+      <c r="B154" s="2" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C154" t="inlineStr">
+      <c r="C154" s="2" t="inlineStr">
         <is>
           <t>Home</t>
         </is>
       </c>
-      <c r="D154" t="n">
+      <c r="D154" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E154" t="inlineStr">
+      <c r="E154" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F154" t="inlineStr">
+      <c r="F154" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G154" t="b">
-        <v>1</v>
-      </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I154" t="b">
-        <v>1</v>
-      </c>
-      <c r="J154" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K154" t="b">
-        <v>1</v>
-      </c>
-      <c r="L154" t="inlineStr">
+      <c r="G154" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H154" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I154" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J154" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K154" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L154" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="155">
-      <c r="A155" t="n">
+      <c r="A155" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="B155" t="inlineStr">
+      <c r="B155" s="2" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C155" t="inlineStr">
+      <c r="C155" s="2" t="inlineStr">
         <is>
           <t>Point</t>
         </is>
       </c>
-      <c r="D155" t="n">
+      <c r="D155" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E155" t="inlineStr">
+      <c r="E155" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F155" t="inlineStr">
+      <c r="F155" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G155" t="b">
-        <v>1</v>
-      </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I155" t="b">
-        <v>1</v>
-      </c>
-      <c r="J155" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K155" t="b">
-        <v>1</v>
-      </c>
-      <c r="L155" t="inlineStr">
+      <c r="G155" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H155" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I155" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J155" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K155" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L155" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
@@ -8533,7 +8533,7 @@
       </c>
       <c r="F156" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G156" s="2" t="b">
@@ -8545,11 +8545,11 @@
         </is>
       </c>
       <c r="I156" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J156" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K156" s="2" t="b">
@@ -8557,7 +8557,7 @@
       </c>
       <c r="L156" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -8585,7 +8585,7 @@
       </c>
       <c r="F157" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G157" s="2" t="b">
@@ -8597,11 +8597,11 @@
         </is>
       </c>
       <c r="I157" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J157" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K157" s="2" t="b">
@@ -8609,7 +8609,7 @@
       </c>
       <c r="L157" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -8637,7 +8637,7 @@
       </c>
       <c r="F158" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G158" s="2" t="b">
@@ -8649,11 +8649,11 @@
         </is>
       </c>
       <c r="I158" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J158" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K158" s="2" t="b">
@@ -8661,7 +8661,7 @@
       </c>
       <c r="L158" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -8689,7 +8689,7 @@
       </c>
       <c r="F159" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G159" s="2" t="b">
@@ -8701,11 +8701,11 @@
         </is>
       </c>
       <c r="I159" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J159" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K159" s="2" t="b">
@@ -8713,7 +8713,7 @@
       </c>
       <c r="L159" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -9706,260 +9706,260 @@
       </c>
     </row>
     <row r="179">
-      <c r="A179" t="n">
+      <c r="A179" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="B179" t="inlineStr">
+      <c r="B179" s="2" t="inlineStr">
         <is>
           <t>Weak GPS signal Positioning accuracy may be compromised Please fly with caution .</t>
         </is>
       </c>
-      <c r="C179" t="inlineStr">
+      <c r="C179" s="2" t="inlineStr">
         <is>
           <t>Positioning</t>
         </is>
       </c>
-      <c r="D179" t="n">
+      <c r="D179" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E179" t="inlineStr">
+      <c r="E179" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F179" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G179" t="b">
-        <v>1</v>
-      </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I179" t="b">
-        <v>1</v>
-      </c>
-      <c r="J179" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K179" t="b">
-        <v>1</v>
-      </c>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F179" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G179" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H179" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I179" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J179" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K179" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L179" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="180">
-      <c r="A180" t="n">
+      <c r="A180" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="B180" t="inlineStr">
+      <c r="B180" s="2" t="inlineStr">
         <is>
           <t>Weak GPS signal Positioning accuracy may be compromised Please fly with caution .</t>
         </is>
       </c>
-      <c r="C180" t="inlineStr">
+      <c r="C180" s="2" t="inlineStr">
         <is>
           <t>accuracy</t>
         </is>
       </c>
-      <c r="D180" t="n">
+      <c r="D180" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E180" t="inlineStr">
+      <c r="E180" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F180" t="inlineStr">
+      <c r="F180" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G180" t="b">
-        <v>1</v>
-      </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I180" t="b">
-        <v>1</v>
-      </c>
-      <c r="J180" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K180" t="b">
-        <v>1</v>
-      </c>
-      <c r="L180" t="inlineStr">
+      <c r="G180" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H180" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I180" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J180" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K180" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L180" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="181">
-      <c r="A181" t="n">
+      <c r="A181" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="B181" t="inlineStr">
+      <c r="B181" s="2" t="inlineStr">
         <is>
           <t>Weak GPS signal Positioning accuracy may be compromised Please fly with caution .</t>
         </is>
       </c>
-      <c r="C181" t="inlineStr">
+      <c r="C181" s="2" t="inlineStr">
         <is>
           <t>may</t>
         </is>
       </c>
-      <c r="D181" t="n">
+      <c r="D181" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E181" t="inlineStr">
+      <c r="E181" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F181" t="inlineStr">
+      <c r="F181" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G181" t="b">
-        <v>1</v>
-      </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I181" t="b">
-        <v>1</v>
-      </c>
-      <c r="J181" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K181" t="b">
-        <v>1</v>
-      </c>
-      <c r="L181" t="inlineStr">
+      <c r="G181" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H181" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I181" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J181" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K181" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L181" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="182">
-      <c r="A182" t="n">
+      <c r="A182" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="B182" t="inlineStr">
+      <c r="B182" s="2" t="inlineStr">
         <is>
           <t>Weak GPS signal Positioning accuracy may be compromised Please fly with caution .</t>
         </is>
       </c>
-      <c r="C182" t="inlineStr">
+      <c r="C182" s="2" t="inlineStr">
         <is>
           <t>be</t>
         </is>
       </c>
-      <c r="D182" t="n">
+      <c r="D182" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E182" t="inlineStr">
+      <c r="E182" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F182" t="inlineStr">
+      <c r="F182" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G182" t="b">
-        <v>1</v>
-      </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I182" t="b">
-        <v>1</v>
-      </c>
-      <c r="J182" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K182" t="b">
-        <v>1</v>
-      </c>
-      <c r="L182" t="inlineStr">
+      <c r="G182" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H182" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I182" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J182" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K182" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L182" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="183">
-      <c r="A183" t="n">
+      <c r="A183" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="B183" t="inlineStr">
+      <c r="B183" s="2" t="inlineStr">
         <is>
           <t>Weak GPS signal Positioning accuracy may be compromised Please fly with caution .</t>
         </is>
       </c>
-      <c r="C183" t="inlineStr">
+      <c r="C183" s="2" t="inlineStr">
         <is>
           <t>compromised</t>
         </is>
       </c>
-      <c r="D183" t="n">
+      <c r="D183" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E183" t="inlineStr">
+      <c r="E183" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F183" t="inlineStr">
+      <c r="F183" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G183" t="b">
-        <v>1</v>
-      </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I183" t="b">
-        <v>1</v>
-      </c>
-      <c r="J183" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K183" t="b">
-        <v>1</v>
-      </c>
-      <c r="L183" t="inlineStr">
+      <c r="G183" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H183" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I183" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J183" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K183" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L183" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
